--- a/Template.xlsx
+++ b/Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="272">
   <si>
     <t>Language_id</t>
   </si>
@@ -70,6 +70,12 @@
     <t>2022-04-06T09:28:56.000Z</t>
   </si>
   <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>2022-04-08T09:51:56.000Z</t>
+  </si>
+  <si>
     <t>Page_id</t>
   </si>
   <si>
@@ -88,6 +94,12 @@
     <t>2022-04-06T05:49:34.000Z</t>
   </si>
   <si>
+    <t>homePage</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:35:58.000Z</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -661,6 +673,147 @@
     <t>2022-04-06T09:31:08.000Z</t>
   </si>
   <si>
+    <t>mensaje</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:08:03.000Z</t>
+  </si>
+  <si>
+    <t>nuevo idioma</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:08:04.000Z</t>
+  </si>
+  <si>
+    <t>nueva pagina</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:08:05.000Z</t>
+  </si>
+  <si>
+    <t>nueva etiqueta</t>
+  </si>
+  <si>
+    <t>etiqueta de actualización</t>
+  </si>
+  <si>
+    <t>plantilla completa</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:08:06.000Z</t>
+  </si>
+  <si>
+    <t>descargarPlantillas</t>
+  </si>
+  <si>
+    <t>completarSubir</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:08:07.000Z</t>
+  </si>
+  <si>
+    <t>Ausloggen</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:18:32.000Z</t>
+  </si>
+  <si>
+    <t>userDatabase in French</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:24:07.000Z</t>
+  </si>
+  <si>
+    <t>Se déconnecter</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:24:08.000Z</t>
+  </si>
+  <si>
+    <t>un message</t>
+  </si>
+  <si>
+    <t>nouveau langage</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:24:09.000Z</t>
+  </si>
+  <si>
+    <t>nouvelle page</t>
+  </si>
+  <si>
+    <t>Nouvelle étiquette</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:24:10.000Z</t>
+  </si>
+  <si>
+    <t>modèle complet</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:24:11.000Z</t>
+  </si>
+  <si>
+    <t>téléchargerModèles</t>
+  </si>
+  <si>
+    <t>téléchargement complet</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:24:12.000Z</t>
+  </si>
+  <si>
+    <t>用户数据库</t>
+  </si>
+  <si>
+    <t>2022-04-08T09:54:53.000Z</t>
+  </si>
+  <si>
+    <t>登出</t>
+  </si>
+  <si>
+    <t>2022-04-08T09:54:54.000Z</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>新语言</t>
+  </si>
+  <si>
+    <t>2022-04-08T09:54:55.000Z</t>
+  </si>
+  <si>
+    <t>新的一页</t>
+  </si>
+  <si>
+    <t>2022-04-08T09:54:56.000Z</t>
+  </si>
+  <si>
+    <t>新标签</t>
+  </si>
+  <si>
+    <t>更新标签</t>
+  </si>
+  <si>
+    <t>2022-04-08T09:54:57.000Z</t>
+  </si>
+  <si>
+    <t>全模板</t>
+  </si>
+  <si>
+    <t>2022-04-08T09:54:58.000Z</t>
+  </si>
+  <si>
+    <t>下载模板</t>
+  </si>
+  <si>
+    <t>完成上传</t>
+  </si>
+  <si>
+    <t>2022-04-08T09:54:59.000Z</t>
+  </si>
+  <si>
     <t>Page_map_id</t>
   </si>
   <si>
@@ -674,6 +827,9 @@
   </si>
   <si>
     <t>2022-04-06T09:14:16.000Z</t>
+  </si>
+  <si>
+    <t>2022-04-07T11:18:31.000Z</t>
   </si>
 </sst>
 </file>
@@ -1105,8 +1261,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
@@ -4115,10 +4285,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4135,13 +4305,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -4152,135 +4322,135 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
+      <c r="A4" s="2">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="5:5" x14ac:dyDescent="0.25">
@@ -7283,13 +7453,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -7309,19 +7479,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -7332,19 +7502,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>7</v>
@@ -7355,19 +7525,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>7</v>
@@ -7378,19 +7548,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>7</v>
@@ -7401,19 +7571,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>7</v>
@@ -7424,19 +7594,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>7</v>
@@ -7447,19 +7617,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
@@ -7470,19 +7640,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
@@ -7493,19 +7663,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>7</v>
@@ -7516,19 +7686,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>7</v>
@@ -7539,19 +7709,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>7</v>
@@ -7562,19 +7732,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>7</v>
@@ -7585,19 +7755,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>7</v>
@@ -7608,19 +7778,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>7</v>
@@ -7631,19 +7801,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>7</v>
@@ -7654,19 +7824,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>7</v>
@@ -7677,19 +7847,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>7</v>
@@ -7700,19 +7870,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>7</v>
@@ -7723,19 +7893,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>7</v>
@@ -7746,19 +7916,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5">
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>7</v>
@@ -7769,19 +7939,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>7</v>
@@ -7792,19 +7962,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>7</v>
@@ -7815,19 +7985,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5">
         <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>7</v>
@@ -7838,19 +8008,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>7</v>
@@ -7861,19 +8031,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>7</v>
@@ -7884,19 +8054,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>7</v>
@@ -7907,19 +8077,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>7</v>
@@ -7930,19 +8100,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>7</v>
@@ -7953,19 +8123,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D30" s="5">
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>7</v>
@@ -7976,19 +8146,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D31" s="5">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>7</v>
@@ -7999,19 +8169,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5">
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>7</v>
@@ -8022,19 +8192,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D33" s="5">
         <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>7</v>
@@ -8045,19 +8215,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D34" s="5">
         <v>4</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>7</v>
@@ -8068,19 +8238,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D35" s="5">
         <v>4</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>7</v>
@@ -8091,19 +8261,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D36" s="5">
         <v>4</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>7</v>
@@ -8114,19 +8284,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D37" s="5">
         <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>7</v>
@@ -8137,19 +8307,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>7</v>
@@ -8160,19 +8330,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>7</v>
@@ -8183,19 +8353,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>7</v>
@@ -8206,19 +8376,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>7</v>
@@ -8229,19 +8399,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D42" s="2">
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>7</v>
@@ -8252,19 +8422,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>7</v>
@@ -8275,19 +8445,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D44" s="2">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>7</v>
@@ -8298,19 +8468,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D45" s="2">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>7</v>
@@ -8321,19 +8491,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D46" s="2">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>7</v>
@@ -8344,19 +8514,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>7</v>
@@ -8367,19 +8537,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D48" s="2">
         <v>3</v>
       </c>
       <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
         <v>124</v>
-      </c>
-      <c r="F48" t="s">
-        <v>120</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>7</v>
@@ -8390,19 +8560,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>7</v>
@@ -8413,19 +8583,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D50" s="2">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>7</v>
@@ -8436,19 +8606,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>7</v>
@@ -8459,19 +8629,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>7</v>
@@ -8482,19 +8652,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D53" s="2">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>7</v>
@@ -8505,19 +8675,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D54" s="2">
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F54" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>7</v>
@@ -8528,19 +8698,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F55" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>7</v>
@@ -8551,19 +8721,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D56" s="2">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F56" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>7</v>
@@ -8574,19 +8744,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F57" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>7</v>
@@ -8597,19 +8767,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D58" s="2">
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>7</v>
@@ -8620,19 +8790,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F59" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>7</v>
@@ -8643,19 +8813,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D60" s="4">
         <v>3</v>
       </c>
       <c r="E60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60" t="s">
         <v>149</v>
-      </c>
-      <c r="F60" t="s">
-        <v>145</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>7</v>
@@ -8666,19 +8836,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D61" s="4">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>7</v>
@@ -8689,19 +8859,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D62" s="4">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F62" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>7</v>
@@ -8712,19 +8882,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>7</v>
@@ -8735,19 +8905,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D64" s="4">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>7</v>
@@ -8758,19 +8928,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D65" s="4">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>7</v>
@@ -8781,19 +8951,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D66" s="4">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F66" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>7</v>
@@ -8804,19 +8974,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>7</v>
@@ -8827,19 +8997,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D68" s="4">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>7</v>
@@ -8850,19 +9020,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D69" s="4">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>7</v>
@@ -8873,19 +9043,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D70" s="4">
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>7</v>
@@ -8896,19 +9066,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F71" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>7</v>
@@ -8919,19 +9089,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D72" s="4">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F72" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>7</v>
@@ -8942,19 +9112,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D73" s="4">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F73" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>7</v>
@@ -8965,19 +9135,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D74" s="4">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>7</v>
@@ -8988,19 +9158,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D75" s="4">
         <v>5</v>
       </c>
       <c r="E75" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" t="s">
         <v>180</v>
-      </c>
-      <c r="F75" t="s">
-        <v>176</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>7</v>
@@ -9011,19 +9181,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D76" s="4">
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F76" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>7</v>
@@ -9034,19 +9204,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D77" s="4">
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F77" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>7</v>
@@ -9057,19 +9227,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D78" s="4">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F78" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>7</v>
@@ -9080,19 +9250,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D79" s="4">
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F79" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>7</v>
@@ -9103,19 +9273,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D80" s="4">
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F80" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>7</v>
@@ -9126,19 +9296,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D81" s="4">
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F81" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>7</v>
@@ -9149,19 +9319,19 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D82" s="4">
         <v>5</v>
       </c>
       <c r="E82" t="s">
+        <v>199</v>
+      </c>
+      <c r="F82" t="s">
         <v>195</v>
-      </c>
-      <c r="F82" t="s">
-        <v>191</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>7</v>
@@ -9172,19 +9342,19 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D83" s="4">
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F83" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>7</v>
@@ -9195,19 +9365,19 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D84" s="4">
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F84" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>7</v>
@@ -9218,19 +9388,19 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D85" s="4">
         <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F85" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>7</v>
@@ -9241,19 +9411,19 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D86" s="4">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F86" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>7</v>
@@ -9264,19 +9434,19 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D87" s="4">
         <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F87" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>7</v>
@@ -9287,19 +9457,19 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D88" s="4">
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F88" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>7</v>
@@ -9310,19 +9480,19 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D89" s="4">
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F89" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>7</v>
@@ -9333,19 +9503,19 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D90" s="4">
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F90" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>7</v>
@@ -9356,168 +9526,690 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D91" s="4">
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F91" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="D92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="A92" s="5">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" s="4">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>220</v>
+      </c>
+      <c r="F92" t="s">
+        <v>220</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="D93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="A93" s="5">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" s="4">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>222</v>
+      </c>
+      <c r="F93" t="s">
+        <v>222</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="D94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="A94" s="5">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>224</v>
+      </c>
+      <c r="F94" t="s">
+        <v>224</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="D95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="A95" s="5">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="4">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>224</v>
+      </c>
+      <c r="F95" t="s">
+        <v>224</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="D96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="A96" s="5">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="4">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>224</v>
+      </c>
+      <c r="F96" t="s">
+        <v>224</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="D97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="A97" s="5">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" s="4">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>228</v>
+      </c>
+      <c r="F97" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="D98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="A98" s="5">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" t="s">
+        <v>229</v>
+      </c>
+      <c r="D98" s="4">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>228</v>
+      </c>
+      <c r="F98" t="s">
+        <v>228</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="D99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="A99" s="5">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99" s="4">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>231</v>
+      </c>
+      <c r="F99" t="s">
+        <v>231</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="D100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="A100" s="5">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="s">
+        <v>232</v>
+      </c>
+      <c r="D100" s="4">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>233</v>
+      </c>
+      <c r="F100" t="s">
+        <v>233</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="D101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="A101" s="5">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="4">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>235</v>
+      </c>
+      <c r="F101" t="s">
+        <v>235</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="D102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="A102" s="5">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="4">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
+        <v>237</v>
+      </c>
+      <c r="F102" t="s">
+        <v>237</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="D103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="A103" s="5">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="4">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>237</v>
+      </c>
+      <c r="F103" t="s">
+        <v>237</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="D104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="A104" s="5">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" s="4">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>240</v>
+      </c>
+      <c r="F104" t="s">
+        <v>240</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="D105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="A105" s="5">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="4">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>240</v>
+      </c>
+      <c r="F105" t="s">
+        <v>240</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="D106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="A106" s="5">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" t="s">
+        <v>242</v>
+      </c>
+      <c r="D106" s="4">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>243</v>
+      </c>
+      <c r="F106" t="s">
+        <v>243</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="D107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="A107" s="5">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="4">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>243</v>
+      </c>
+      <c r="F107" t="s">
+        <v>243</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="D108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="A108" s="5">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" s="4">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
+        <v>245</v>
+      </c>
+      <c r="F108" t="s">
+        <v>245</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="D109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="A109" s="5">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" t="s">
+        <v>246</v>
+      </c>
+      <c r="D109" s="4">
+        <v>6</v>
+      </c>
+      <c r="E109" t="s">
+        <v>245</v>
+      </c>
+      <c r="F109" t="s">
+        <v>245</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="D110" s="4"/>
-      <c r="G110" s="4"/>
+      <c r="A110" s="5">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" t="s">
+        <v>247</v>
+      </c>
+      <c r="D110" s="4">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>248</v>
+      </c>
+      <c r="F110" t="s">
+        <v>248</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="D111" s="4"/>
-      <c r="G111" s="4"/>
+      <c r="A111" s="5">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" t="s">
+        <v>249</v>
+      </c>
+      <c r="D111" s="4">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>250</v>
+      </c>
+      <c r="F111" t="s">
+        <v>250</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="D112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="A112" s="5">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" t="s">
+        <v>251</v>
+      </c>
+      <c r="D112" s="4">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>252</v>
+      </c>
+      <c r="F112" t="s">
+        <v>252</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="D113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="A113" s="5">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>253</v>
+      </c>
+      <c r="D113" s="4">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>252</v>
+      </c>
+      <c r="F113" t="s">
+        <v>252</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="D114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="A114" s="5">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>254</v>
+      </c>
+      <c r="D114" s="4">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>255</v>
+      </c>
+      <c r="F114" t="s">
+        <v>255</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="D115" s="4"/>
-      <c r="G115" s="4"/>
+      <c r="A115" s="5">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="4">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>257</v>
+      </c>
+      <c r="F115" t="s">
+        <v>257</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="D116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="A116" s="5">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" s="4">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>257</v>
+      </c>
+      <c r="F116" t="s">
+        <v>257</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="D117" s="4"/>
-      <c r="G117" s="4"/>
+      <c r="A117" s="5">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" t="s">
+        <v>259</v>
+      </c>
+      <c r="D117" s="4">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>260</v>
+      </c>
+      <c r="F117" t="s">
+        <v>260</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="D118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="A118" s="5">
+        <v>125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" t="s">
+        <v>261</v>
+      </c>
+      <c r="D118" s="4">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>262</v>
+      </c>
+      <c r="F118" t="s">
+        <v>262</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="D119" s="4"/>
-      <c r="G119" s="4"/>
+      <c r="A119" s="5">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" t="s">
+        <v>263</v>
+      </c>
+      <c r="D119" s="4">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>262</v>
+      </c>
+      <c r="F119" t="s">
+        <v>262</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="D120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="A120" s="5">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>174</v>
+      </c>
+      <c r="C120" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" s="4">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>265</v>
+      </c>
+      <c r="F120" t="s">
+        <v>265</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
@@ -13320,13 +14012,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -13349,10 +14041,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>7</v>
@@ -13369,10 +14061,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
@@ -13389,10 +14081,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
@@ -13409,10 +14101,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -13429,10 +14121,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
@@ -13449,10 +14141,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>7</v>
@@ -13469,10 +14161,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>7</v>
@@ -13489,10 +14181,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>7</v>
@@ -13509,10 +14201,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>7</v>
@@ -13529,10 +14221,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>7</v>
@@ -13549,10 +14241,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>7</v>
@@ -13569,10 +14261,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>7</v>
@@ -13589,10 +14281,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>7</v>
@@ -13609,10 +14301,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>7</v>
@@ -13629,10 +14321,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>7</v>
@@ -13649,10 +14341,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>7</v>
@@ -13669,10 +14361,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>7</v>
@@ -13689,10 +14381,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>7</v>
@@ -13709,10 +14401,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>7</v>
@@ -13729,10 +14421,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>7</v>
@@ -13749,10 +14441,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>7</v>
@@ -13769,10 +14461,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>7</v>
@@ -13789,10 +14481,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>7</v>
@@ -13809,10 +14501,10 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>7</v>
@@ -13829,10 +14521,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>7</v>
@@ -13849,10 +14541,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>7</v>
@@ -13869,10 +14561,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>7</v>
@@ -13889,10 +14581,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>7</v>
@@ -13909,10 +14601,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>7</v>
@@ -13929,10 +14621,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>7</v>
@@ -13949,10 +14641,10 @@
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>7</v>
@@ -13969,10 +14661,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>7</v>
@@ -13989,10 +14681,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>7</v>
@@ -14009,10 +14701,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>7</v>
@@ -14029,10 +14721,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>7</v>
@@ -14049,10 +14741,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>7</v>
@@ -14069,10 +14761,10 @@
         <v>19</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>7</v>
@@ -14089,10 +14781,10 @@
         <v>37</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>7</v>
@@ -14109,10 +14801,10 @@
         <v>22</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>7</v>
@@ -14129,10 +14821,10 @@
         <v>23</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>7</v>
@@ -14149,10 +14841,10 @@
         <v>24</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>7</v>
@@ -14169,10 +14861,10 @@
         <v>37</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>7</v>
@@ -14189,10 +14881,10 @@
         <v>38</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>7</v>
@@ -14209,10 +14901,10 @@
         <v>39</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>7</v>
@@ -14229,10 +14921,10 @@
         <v>40</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>7</v>
@@ -14249,10 +14941,10 @@
         <v>41</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>7</v>
@@ -14269,10 +14961,10 @@
         <v>42</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>7</v>
@@ -14289,10 +14981,10 @@
         <v>43</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>7</v>
@@ -14309,10 +15001,10 @@
         <v>44</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>7</v>
@@ -14329,10 +15021,10 @@
         <v>45</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>7</v>
@@ -14349,10 +15041,10 @@
         <v>46</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>7</v>
@@ -14369,10 +15061,10 @@
         <v>47</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>7</v>
@@ -14389,10 +15081,10 @@
         <v>48</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>7</v>
@@ -14409,10 +15101,10 @@
         <v>49</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>7</v>
@@ -14429,10 +15121,10 @@
         <v>50</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>7</v>
@@ -14449,10 +15141,10 @@
         <v>51</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>7</v>
@@ -14469,10 +15161,10 @@
         <v>52</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>7</v>
@@ -14489,10 +15181,10 @@
         <v>53</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>7</v>
@@ -14509,10 +15201,10 @@
         <v>54</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>7</v>
@@ -14529,10 +15221,10 @@
         <v>55</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>7</v>
@@ -14549,10 +15241,10 @@
         <v>56</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>7</v>
@@ -14569,10 +15261,10 @@
         <v>57</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>7</v>
@@ -14589,10 +15281,10 @@
         <v>58</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>7</v>
@@ -14609,10 +15301,10 @@
         <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>7</v>
@@ -14629,10 +15321,10 @@
         <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>7</v>
@@ -14649,10 +15341,10 @@
         <v>61</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>7</v>
@@ -14669,10 +15361,10 @@
         <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>7</v>
@@ -14689,10 +15381,10 @@
         <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>7</v>
@@ -14709,10 +15401,10 @@
         <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>7</v>
@@ -14729,10 +15421,10 @@
         <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E71" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>7</v>
@@ -14749,10 +15441,10 @@
         <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>7</v>
@@ -14769,10 +15461,10 @@
         <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E73" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>7</v>
@@ -14789,10 +15481,10 @@
         <v>68</v>
       </c>
       <c r="D74" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>7</v>
@@ -14809,10 +15501,10 @@
         <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>7</v>
@@ -14829,10 +15521,10 @@
         <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>7</v>
@@ -14849,10 +15541,10 @@
         <v>71</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>7</v>
@@ -14869,10 +15561,10 @@
         <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>7</v>
@@ -14889,10 +15581,10 @@
         <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>7</v>
@@ -14909,10 +15601,10 @@
         <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>7</v>
@@ -14929,10 +15621,10 @@
         <v>75</v>
       </c>
       <c r="D81" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E81" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>7</v>
@@ -14949,10 +15641,10 @@
         <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E82" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>7</v>
@@ -14969,10 +15661,10 @@
         <v>77</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E83" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>7</v>
@@ -14989,10 +15681,10 @@
         <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>7</v>
@@ -15009,10 +15701,10 @@
         <v>79</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="E85" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>7</v>
@@ -15029,10 +15721,10 @@
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="E86" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>7</v>
@@ -15049,10 +15741,10 @@
         <v>80</v>
       </c>
       <c r="D87" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E87" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>7</v>
@@ -15069,10 +15761,10 @@
         <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>7</v>
@@ -15089,10 +15781,10 @@
         <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E89" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>7</v>
@@ -15109,10 +15801,10 @@
         <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E90" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>7</v>
@@ -15129,10 +15821,10 @@
         <v>87</v>
       </c>
       <c r="D91" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E91" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>7</v>
@@ -15149,10 +15841,10 @@
         <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E92" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>7</v>
@@ -15169,10 +15861,10 @@
         <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>7</v>
@@ -15189,10 +15881,10 @@
         <v>90</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>7</v>
@@ -15209,10 +15901,10 @@
         <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>7</v>
@@ -15229,10 +15921,10 @@
         <v>92</v>
       </c>
       <c r="D96" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>7</v>
@@ -15249,10 +15941,10 @@
         <v>93</v>
       </c>
       <c r="D97" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E97" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>7</v>
@@ -15269,564 +15961,654 @@
         <v>94</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E98" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>24</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>24</v>
+      <c r="A99">
+        <v>102</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1</v>
+      </c>
+      <c r="C99" s="4">
+        <v>37</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>24</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>24</v>
+      <c r="A100">
+        <v>103</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4">
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>24</v>
+      <c r="A101">
+        <v>104</v>
+      </c>
+      <c r="B101" s="4">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4">
+        <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>24</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>24</v>
+      <c r="A102">
+        <v>105</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>96</v>
       </c>
       <c r="D102" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>24</v>
+      <c r="A103">
+        <v>106</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4">
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>24</v>
+      <c r="A104">
+        <v>107</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1</v>
+      </c>
+      <c r="C104" s="4">
+        <v>98</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>24</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>24</v>
+      <c r="A105">
+        <v>108</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4">
+        <v>99</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>24</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>24</v>
+      <c r="A106">
+        <v>109</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4">
+        <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>24</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>24</v>
+      <c r="A107">
+        <v>110</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4">
+        <v>101</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>24</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>24</v>
+      <c r="A108">
+        <v>111</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4">
+        <v>102</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>24</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>24</v>
+      <c r="A109">
+        <v>112</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4">
+        <v>80</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>24</v>
+      <c r="A110">
+        <v>113</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1</v>
+      </c>
+      <c r="C110" s="4">
+        <v>103</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>24</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>24</v>
+      <c r="A111">
+        <v>114</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111" s="4">
+        <v>104</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>24</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>24</v>
+      <c r="A112">
+        <v>115</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4">
+        <v>105</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>24</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>24</v>
+      <c r="A113">
+        <v>116</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1</v>
+      </c>
+      <c r="C113" s="4">
+        <v>106</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>24</v>
+      <c r="A114">
+        <v>117</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1</v>
+      </c>
+      <c r="C114" s="4">
+        <v>107</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>24</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>24</v>
+      <c r="A115">
+        <v>118</v>
+      </c>
+      <c r="B115" s="4">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4">
+        <v>108</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>24</v>
+      <c r="A116">
+        <v>119</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4">
+        <v>109</v>
       </c>
       <c r="D116" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="E116" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>24</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>24</v>
+      <c r="A117">
+        <v>120</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1</v>
+      </c>
+      <c r="C117" s="4">
+        <v>110</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>24</v>
+      <c r="A118">
+        <v>121</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1</v>
+      </c>
+      <c r="C118" s="4">
+        <v>111</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>24</v>
+      <c r="A119">
+        <v>122</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1</v>
+      </c>
+      <c r="C119" s="4">
+        <v>112</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>24</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>24</v>
+      <c r="A120">
+        <v>123</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1</v>
+      </c>
+      <c r="C120" s="4">
+        <v>113</v>
       </c>
       <c r="D120" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>24</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>24</v>
+      <c r="A121">
+        <v>128</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1</v>
+      </c>
+      <c r="C121" s="4">
+        <v>118</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>24</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>24</v>
+      <c r="A122">
+        <v>129</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1</v>
+      </c>
+      <c r="C122" s="4">
+        <v>119</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>24</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>24</v>
+      <c r="A123">
+        <v>130</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1</v>
+      </c>
+      <c r="C123" s="4">
+        <v>120</v>
       </c>
       <c r="D123" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>24</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>24</v>
+      <c r="A124">
+        <v>131</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4">
+        <v>121</v>
       </c>
       <c r="D124" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="F125" s="4"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="F126" s="4"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="F127" s="4"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="F129" s="4"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="F130" s="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>132</v>
+      </c>
+      <c r="B125" s="4">
+        <v>1</v>
+      </c>
+      <c r="C125" s="4">
+        <v>122</v>
+      </c>
+      <c r="D125" t="s">
+        <v>257</v>
+      </c>
+      <c r="E125" t="s">
+        <v>257</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>133</v>
+      </c>
+      <c r="B126" s="4">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4">
+        <v>123</v>
+      </c>
+      <c r="D126" t="s">
+        <v>260</v>
+      </c>
+      <c r="E126" t="s">
+        <v>260</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>134</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4">
+        <v>124</v>
+      </c>
+      <c r="D127" t="s">
+        <v>260</v>
+      </c>
+      <c r="E127" t="s">
+        <v>260</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>135</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4">
+        <v>125</v>
+      </c>
+      <c r="D128" t="s">
+        <v>262</v>
+      </c>
+      <c r="E128" t="s">
+        <v>262</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>136</v>
+      </c>
+      <c r="B129" s="4">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4">
+        <v>126</v>
+      </c>
+      <c r="D129" t="s">
+        <v>262</v>
+      </c>
+      <c r="E129" t="s">
+        <v>262</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>137</v>
+      </c>
+      <c r="B130" s="4">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4">
+        <v>127</v>
+      </c>
+      <c r="D130" t="s">
+        <v>265</v>
+      </c>
+      <c r="E130" t="s">
+        <v>265</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
